--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="-1660" windowWidth="25600" windowHeight="16100" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="39780" yWindow="-1660" windowWidth="25600" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Attack - ATTACK" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Block - Block" sheetId="4" r:id="rId4"/>
     <sheet name="Active - Active" sheetId="5" r:id="rId5"/>
     <sheet name="Passive - Passive" sheetId="6" r:id="rId6"/>
+    <sheet name="Character" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>ATTACK</t>
   </si>
@@ -241,6 +242,22 @@
   </si>
   <si>
     <t>EnemyRanged</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCharacter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempEnemy</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1782,8 +1799,8 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2951,7 +2968,7 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3231,6 +3248,240 @@
       <c r="C22" s="33"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D9" activeCellId="1" sqref="I14 D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" style="28" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="-1660" windowWidth="25600" windowHeight="16100"/>
+    <workbookView xWindow="44380" yWindow="420" windowWidth="25600" windowHeight="16100" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Attack - ATTACK" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Active - Active" sheetId="5" r:id="rId5"/>
     <sheet name="Passive - Passive" sheetId="6" r:id="rId6"/>
     <sheet name="Character" sheetId="8" r:id="rId7"/>
+    <sheet name="Skill Tree" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>ATTACK</t>
   </si>
@@ -81,183 +82,326 @@
     <t>AOE Knock back</t>
   </si>
   <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Initial Dodge</t>
+  </si>
+  <si>
+    <t>Devour while dodge</t>
+  </si>
+  <si>
+    <t>Slow path</t>
+  </si>
+  <si>
+    <t>Reduce CD</t>
+  </si>
+  <si>
+    <t>DMG + Knock back</t>
+  </si>
+  <si>
+    <t>Leap</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Ice Block</t>
+  </si>
+  <si>
+    <t>Full Block AOE</t>
+  </si>
+  <si>
+    <t>Bubble(Immune DMG + CC)</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Devour Environment Block</t>
+  </si>
+  <si>
+    <t>Ice Nova</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Storm(Bleeding)</t>
+  </si>
+  <si>
+    <t>Storm(DMG Reduce)</t>
+  </si>
+  <si>
+    <t>Release Environment Buff</t>
+  </si>
+  <si>
+    <t>ICE Cone</t>
+  </si>
+  <si>
+    <t>Chain of Contamination</t>
+  </si>
+  <si>
+    <t>AOE Stun</t>
+  </si>
+  <si>
+    <t>Mega Devour</t>
+  </si>
+  <si>
+    <t>Deep Corruption</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>Ascendence</t>
+  </si>
+  <si>
+    <t>Killing Spree</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Environment Buff number</t>
+  </si>
+  <si>
+    <t>Environment Buff diversity</t>
+  </si>
+  <si>
+    <t>Devour (+Health Region)</t>
+  </si>
+  <si>
+    <t>Devour (+Move Speed)</t>
+  </si>
+  <si>
+    <t>Cull the Weak</t>
+  </si>
+  <si>
+    <t>SOC DOT</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>Move Speed</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Health Region</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DMG Reduce</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Instant Devour &amp; -Devour CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Devour Excecution </t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Root/Stun</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Initial Ranged</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyRanged</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCharacter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempEnemy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill tree </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack dot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack slow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged Seed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged graves ult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge leave slow zone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge reduce cd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active1 Ice ring</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 1 division</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive cull the weak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged Seed apply dot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Cone AOE</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Initial Dodge</t>
-  </si>
-  <si>
-    <t>Devour while dodge</t>
-  </si>
-  <si>
-    <t>Slow path</t>
-  </si>
-  <si>
-    <t>Reduce CD</t>
-  </si>
-  <si>
-    <t>DMG + Knock back</t>
-  </si>
-  <si>
-    <t>Leap</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Sheild Block</t>
-  </si>
-  <si>
-    <t>Sheild Reflect</t>
-  </si>
-  <si>
-    <t>Deploy</t>
-  </si>
-  <si>
-    <t>Ice Block</t>
-  </si>
-  <si>
-    <t>Full Block AOE</t>
-  </si>
-  <si>
-    <t>Bubble(Immune DMG + CC)</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Devour Environment Block</t>
-  </si>
-  <si>
-    <t>Ice Nova</t>
-  </si>
-  <si>
-    <t>Divide</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>Storm(Bleeding)</t>
-  </si>
-  <si>
-    <t>Storm(DMG Reduce)</t>
-  </si>
-  <si>
-    <t>Release Environment Buff</t>
-  </si>
-  <si>
-    <t>ICE Cone</t>
-  </si>
-  <si>
-    <t>Chain of Contamination</t>
-  </si>
-  <si>
-    <t>AOE Stun</t>
-  </si>
-  <si>
-    <t>Mega Devour</t>
-  </si>
-  <si>
-    <t>Deep Corruption</t>
-  </si>
-  <si>
-    <t>Mimic</t>
-  </si>
-  <si>
-    <t>Ascendence</t>
-  </si>
-  <si>
-    <t>Killing Spree</t>
-  </si>
-  <si>
-    <t>Passive</t>
-  </si>
-  <si>
-    <t>Environment Buff number</t>
-  </si>
-  <si>
-    <t>Environment Buff diversity</t>
-  </si>
-  <si>
-    <t>Devour (+Health Region)</t>
-  </si>
-  <si>
-    <t>Devour (+Move Speed)</t>
-  </si>
-  <si>
-    <t>Cull the Weak</t>
-  </si>
-  <si>
-    <t>SOC DOT</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Attack Speed</t>
-  </si>
-  <si>
-    <t>Move Speed</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Health Region</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DMG Reduce</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Instant Devour &amp; -Devour CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Devour Excecution </t>
-  </si>
-  <si>
-    <t>Corruption</t>
-  </si>
-  <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>Root/Stun</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>Initial Ranged</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyRanged</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainCharacter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempEnemy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed apply dot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active2 ice cone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 2 speaadable dot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block sit down</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block fridge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 3 add dot damage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack 4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack 5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged 3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge 3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive 4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged 6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active  7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield Block</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield Reflect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block 2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block 3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 3 add chance to cast</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 12</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1799,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1883,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2255,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21.75" customHeight="1">
@@ -2297,10 +2441,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV8"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2406,11 +2550,68 @@
       <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="19">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2437,7 +2638,9 @@
   </sheetPr>
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2450,7 +2653,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2480,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -2493,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -2506,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2519,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2532,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2545,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
@@ -2575,7 +2778,9 @@
   </sheetPr>
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2588,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2618,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -2631,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -2644,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2657,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2670,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2683,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
@@ -2713,7 +2918,9 @@
   </sheetPr>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2726,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2756,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -2769,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -2782,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -2795,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2808,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -2821,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
@@ -2834,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
@@ -2847,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -2860,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -2873,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -2886,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
@@ -2899,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -2912,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -2925,7 +3132,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
@@ -2938,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -2969,7 +3176,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2983,7 +3190,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -3013,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -3026,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -3039,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3052,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -3065,7 +3272,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -3078,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
@@ -3099,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
@@ -3115,7 +3322,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
@@ -3125,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -3138,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
@@ -3151,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -3167,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
@@ -3180,7 +3387,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
@@ -3191,7 +3398,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -3213,7 +3420,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -3224,7 +3431,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -3235,7 +3442,7 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -3274,7 +3481,7 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="I14 D9"/>
     </sheetView>
   </sheetViews>
@@ -3289,7 +3496,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -3302,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -3319,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
@@ -3376,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
@@ -3482,6 +3689,331 @@
       <c r="B20" s="11">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="28" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A15" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A17" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A18" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="44380" yWindow="420" windowWidth="25600" windowHeight="16100" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="43060" yWindow="-1820" windowWidth="25600" windowHeight="16100" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Attack - ATTACK" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
   <si>
     <t>ATTACK</t>
   </si>
@@ -402,6 +402,38 @@
   </si>
   <si>
     <t>Active 12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargingReduceSpeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>When charging, reduce speed by 50%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3173,10 +3205,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3184,7 +3216,8 @@
     <col min="1" max="1" width="8.1640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="28" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
     <col min="6" max="256" width="8.1640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3393,24 +3426,16 @@
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>63</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
     </row>
@@ -3418,9 +3443,11 @@
       <c r="A19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>111</v>
+      </c>
       <c r="C19" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -3429,9 +3456,11 @@
       <c r="A20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="C20" s="31" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -3440,21 +3469,55 @@
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="C21" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+    <row r="22" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3715,8 +3778,8 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Attack" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -384,26 +384,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>530</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>531</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
     <t>102.1 Direct Damage</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -422,6 +402,34 @@
   <si>
     <t>103.2 AOE damage</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged 102</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charged 103</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>551</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2602,7 @@
   </sheetPr>
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2683,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.75" customHeight="1">
@@ -2685,7 +2693,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="26"/>
       <c r="F6" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.75" customHeight="1">
@@ -2695,7 +2703,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="25" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.75" customHeight="1">
@@ -2711,7 +2719,7 @@
       <c r="D8" s="81"/>
       <c r="E8" s="13"/>
       <c r="F8" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.75" customHeight="1">
@@ -2721,7 +2729,7 @@
       <c r="D9" s="82"/>
       <c r="E9" s="13"/>
       <c r="F9" s="25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.75" customHeight="1">
@@ -3452,8 +3460,8 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3689,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>65</v>
@@ -3702,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>16</v>
@@ -3715,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>66</v>
@@ -3728,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C22" s="63" t="s">
         <v>67</v>
@@ -3741,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>68</v>
@@ -3754,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>69</v>
@@ -4053,7 +4061,9 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -4130,7 +4140,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E5" s="14"/>
     </row>
@@ -4145,7 +4155,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E6" s="14"/>
     </row>
@@ -4376,7 +4386,9 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -2388,8 +2388,8 @@
   </sheetPr>
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="1780" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attack" sheetId="1" r:id="rId1"/>
@@ -1165,6 +1165,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,9 +1190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2618,7 +2618,7 @@
       <c r="A1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
@@ -2671,13 +2671,13 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A5" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="83">
+      <c r="A5" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="84">
         <v>102</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="13"/>
@@ -2687,9 +2687,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="13"/>
       <c r="E6" s="26"/>
       <c r="F6" s="25" t="s">
@@ -2697,9 +2697,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="25" t="s">
@@ -2707,26 +2707,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A8" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="83">
+      <c r="A8" s="86" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="84">
         <v>103</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="13"/>
       <c r="F8" s="25" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="82"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="13"/>
       <c r="F9" s="25" t="s">
         <v>120</v>
@@ -2854,8 +2854,8 @@
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3460,8 +3460,8 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attack" sheetId="1" r:id="rId4"/>
-    <sheet name="Charged Attack" sheetId="2" r:id="rId5"/>
-    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId6"/>
-    <sheet name="Block - Block" sheetId="4" r:id="rId7"/>
-    <sheet name="Active - Active" sheetId="5" r:id="rId8"/>
-    <sheet name="Passive - Passive" sheetId="6" r:id="rId9"/>
-    <sheet name="Character" sheetId="7" r:id="rId10"/>
-    <sheet name="Skill Tree" sheetId="8" r:id="rId11"/>
-    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId12"/>
+    <sheet name="Attack" sheetId="1" r:id="rId1"/>
+    <sheet name="Charged Attack" sheetId="2" r:id="rId2"/>
+    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId3"/>
+    <sheet name="Block - Block" sheetId="4" r:id="rId4"/>
+    <sheet name="Active - Active" sheetId="5" r:id="rId5"/>
+    <sheet name="Passive - Passive" sheetId="6" r:id="rId6"/>
+    <sheet name="Character" sheetId="7" r:id="rId7"/>
+    <sheet name="Skill Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -482,28 +489,23 @@
   </si>
   <si>
     <t xml:space="preserve">Time Limit Plantform </t>
+  </si>
+  <si>
+    <t>RotorEnemy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotor Charged attack</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Next"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
@@ -570,6 +572,10 @@
     <font>
       <sz val="10"/>
       <color indexed="20"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Avenir Next"/>
     </font>
   </fonts>
@@ -1031,320 +1037,378 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff313131"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fffdfeff"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ff932092"/>
-      <rgbColor rgb="ff00f900"/>
-      <rgbColor rgb="ff0432ff"/>
-      <rgbColor rgb="ffff2600"/>
-      <rgbColor rgb="ff00fcff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF313131"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFDFEFF"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FF929292"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FF932092"/>
+      <rgbColor rgb="FF00F900"/>
+      <rgbColor rgb="FF0432FF"/>
+      <rgbColor rgb="FFFF2600"/>
+      <rgbColor rgb="FF00FCFF"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -1470,7 +1534,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1479,7 +1543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1488,7 +1552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1562,7 +1626,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1570,7 +1634,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1589,7 +1653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1619,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1645,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1671,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1697,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1723,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1749,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1775,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1801,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1827,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1840,9 +1904,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1857,7 +1927,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1865,7 +1935,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1884,7 +1954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1910,7 +1980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1936,7 +2006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1962,7 +2032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1988,7 +2058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2014,7 +2084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2040,7 +2110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2066,7 +2136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2092,7 +2162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2118,7 +2188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2131,9 +2201,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2147,7 +2223,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2166,7 +2242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2196,7 +2272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2222,7 +2298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2248,7 +2324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2274,7 +2350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2300,7 +2376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2326,7 +2402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2352,7 +2428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2378,7 +2454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2404,7 +2480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2417,453 +2493,607 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="10">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="18">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="19">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="20">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="20">
         <v>30</v>
       </c>
-      <c r="C16" t="s" s="24">
+      <c r="C16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="27" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="29" style="27" customWidth="1"/>
-    <col min="7" max="256" width="8.17188" style="27" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="24" customWidth="1"/>
+    <col min="2" max="5" width="16.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="29" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.1640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="92"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>100</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>101</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A5" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="86">
         <v>102</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="C5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" t="s" s="30">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="32"/>
-      <c r="F6" t="s" s="30">
+    <row r="6" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" t="s" s="30">
+    <row r="7" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+    <row r="8" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A8" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="86">
         <v>103</v>
       </c>
-      <c r="C8" t="s" s="19">
+      <c r="C8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="16"/>
-      <c r="F8" t="s" s="30">
+      <c r="D8" s="88"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="16"/>
-      <c r="F9" t="s" s="30">
+    <row r="9" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14">
+    <row r="10" spans="1:6" ht="22.75" customHeight="1">
+      <c r="A10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
         <v>104</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="20">
         <v>105</v>
       </c>
-      <c r="C11" t="s" s="20">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B12" s="36">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="29">
         <v>106</v>
       </c>
-      <c r="C12" t="s" s="20">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="20">
         <v>107</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B14" s="36">
+      <c r="C13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="29">
         <v>108</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="20">
         <v>109</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B16" s="36">
+      <c r="C15" s="17"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="29">
         <v>110</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20">
+        <v>111</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="29">
+        <v>112</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="20">
+        <v>113</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="29">
+        <v>114</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A21" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="20">
+        <v>115</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A22" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="29">
+        <v>116</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A23" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="20">
+        <v>117</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A24" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="29">
+        <v>118</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A25" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="20">
+        <v>119</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A26" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="29">
+        <v>120</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A27" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="20">
+        <v>121</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.75" customHeight="1">
+      <c r="C28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D8:D9"/>
@@ -2871,1860 +3101,1907 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17.8516" style="37" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="37" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="37" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="37" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="30" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="30" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>150</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>151</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>152</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>153</v>
       </c>
-      <c r="C6" t="s" s="19">
+      <c r="C6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>154</v>
       </c>
-      <c r="C7" t="s" s="20">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="20">
         <v>155</v>
       </c>
-      <c r="C8" t="s" s="38">
+      <c r="C8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="18.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="18.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="45" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.6719" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="45" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="38" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="38" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" t="s" s="50">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="50">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="50">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="51">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="52">
-        <v>0</v>
-      </c>
-      <c r="B3" s="53">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43">
         <v>200</v>
       </c>
-      <c r="C3" t="s" s="54">
+      <c r="C3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="48">
         <v>201</v>
       </c>
-      <c r="C4" t="s" s="59">
+      <c r="C4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B5" s="58">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="48">
         <v>202</v>
       </c>
-      <c r="C5" t="s" s="59">
+      <c r="C5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B6" s="58">
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="48">
         <v>203</v>
       </c>
-      <c r="C6" t="s" s="62">
+      <c r="C6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B7" s="58">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="48">
         <v>204</v>
       </c>
-      <c r="C7" t="s" s="62">
+      <c r="C7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B8" s="58">
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="48">
         <v>205</v>
       </c>
-      <c r="C8" t="s" s="63">
+      <c r="C8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" t="b" s="57">
-        <v>0</v>
-      </c>
-      <c r="B9" s="58">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="48">
         <v>206</v>
       </c>
-      <c r="C9" t="s" s="63">
+      <c r="C9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="69" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="69" customWidth="1"/>
-    <col min="3" max="3" width="23.3516" style="69" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="69" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="69" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="69" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="59" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="59" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>250</v>
       </c>
-      <c r="C3" t="s" s="70">
+      <c r="C3" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>251</v>
       </c>
-      <c r="C4" t="s" s="19">
+      <c r="C4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>252</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>253</v>
       </c>
-      <c r="C6" t="s" s="20">
+      <c r="C6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>254</v>
       </c>
-      <c r="C7" t="s" s="20">
+      <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>255</v>
       </c>
-      <c r="C8" t="s" s="20">
+      <c r="C8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
         <v>256</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
         <v>257</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1">
-      <c r="A11" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
         <v>258</v>
       </c>
-      <c r="C11" t="s" s="19">
+      <c r="C11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <v>259</v>
       </c>
-      <c r="C12" t="s" s="20">
+      <c r="C12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11">
         <v>260</v>
       </c>
-      <c r="C13" t="s" s="15">
+      <c r="C13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1">
-      <c r="A14" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
         <v>261</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1">
-      <c r="A15" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
         <v>262</v>
       </c>
-      <c r="C15" t="s" s="19">
+      <c r="C15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
         <v>263</v>
       </c>
-      <c r="C16" t="s" s="20">
+      <c r="C16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
         <v>264</v>
       </c>
-      <c r="C17" t="s" s="20">
+      <c r="C17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="72" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="23.3516" style="72" customWidth="1"/>
-    <col min="4" max="4" width="42.8516" style="72" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="72" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="72" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="62" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>500</v>
       </c>
-      <c r="C3" t="s" s="70">
+      <c r="C3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63">
         <v>501</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
         <v>502</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="73">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="63">
         <v>503</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6">
         <v>504</v>
       </c>
-      <c r="C7" t="s" s="19">
+      <c r="C7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="73">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="63">
         <v>505</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="C8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
         <v>506</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="73">
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="63">
         <v>507</v>
       </c>
-      <c r="C10" t="s" s="30">
+      <c r="C10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1">
-      <c r="A11" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
         <v>508</v>
       </c>
-      <c r="C11" t="s" s="30">
+      <c r="C11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B12" s="73">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="63">
         <v>509</v>
       </c>
-      <c r="C12" t="s" s="30">
+      <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6">
         <v>510</v>
       </c>
-      <c r="C13" t="s" s="30">
+      <c r="C13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="36.75" customHeight="1">
-      <c r="A14" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B14" s="73">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="63">
         <v>511</v>
       </c>
-      <c r="C14" t="s" s="30">
+      <c r="C14" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1">
-      <c r="A15" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6">
         <v>512</v>
       </c>
-      <c r="C15" t="s" s="30">
+      <c r="C15" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
         <v>513</v>
       </c>
-      <c r="C16" t="s" s="30">
+      <c r="C16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1">
-      <c r="A19" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s" s="30">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s" s="74">
+      <c r="C19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1">
-      <c r="A20" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s" s="30">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s" s="74">
+      <c r="C20" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1">
-      <c r="A21" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s" s="30">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s" s="74">
+      <c r="C21" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1">
-      <c r="A22" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="30">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s" s="74">
+      <c r="C22" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1">
-      <c r="A23" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s" s="30">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s" s="74">
+      <c r="C23" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s" s="30">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s" s="75">
+      <c r="C24" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s" s="75">
+      <c r="D24" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" ht="21.75" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" t="s" s="30">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s" s="77">
+      <c r="C25" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s" s="78">
+      <c r="D25" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" ht="21.75" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" t="s" s="30">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" ht="21.75" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" t="s" s="30">
+      <c r="C26" s="64"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" ht="21.75" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" t="s" s="30">
+      <c r="C27" s="64"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" ht="21.75" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" t="s" s="30">
+      <c r="C28" s="64"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" ht="21.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" t="s" s="30">
+      <c r="C29" s="64"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A30" s="70"/>
+      <c r="B30" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="81" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="81" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="81" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="81" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="81" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="81" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="71" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="71" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="10">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="19">
+      <c r="C8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="C9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="C10" s="31"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="C11" s="72"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="20">
         <v>10</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B14" s="36">
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="20">
         <v>13</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B17" s="36">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="29">
         <v>14</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-    </row>
-    <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-    </row>
-    <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="20">
         <v>16</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-    </row>
-    <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B20" s="36">
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="29">
         <v>17</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="87" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="87" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="87" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="87" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="87" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="87" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="77" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="77" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="77" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="10">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s" s="30">
+      <c r="D4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D5" t="s" s="30">
+      <c r="D5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D6" t="s" s="30">
+      <c r="D6" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="18">
+      <c r="C7" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s" s="30">
+      <c r="D7" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="19">
+      <c r="C8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s" s="30">
+      <c r="D8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="13">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="20">
+      <c r="C9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s" s="30">
+      <c r="D9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="b" s="22">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D10" t="s" s="30">
+      <c r="D10" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" t="s" s="20">
+      <c r="C11" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D11" t="s" s="30">
+      <c r="D11" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" t="s" s="20">
+      <c r="C12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D12" t="s" s="30">
+      <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="20">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="20">
+      <c r="C13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D13" t="s" s="30">
+      <c r="D13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B14" s="36">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" t="s" s="20">
+      <c r="C14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s" s="30">
+      <c r="D14" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A15" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="20">
+      <c r="C15" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D15" t="s" s="30">
+      <c r="D15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="20">
         <v>13</v>
       </c>
-      <c r="C16" t="s" s="20">
+      <c r="C16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D16" t="s" s="30">
+      <c r="D16" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B17" s="36">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A17" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="29">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="20">
+      <c r="C17" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D17" t="s" s="30">
+      <c r="D17" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A18" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" t="s" s="20">
+      <c r="C18" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D18" t="s" s="30">
+      <c r="D18" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A19" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="20">
         <v>16</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" t="b" s="35">
-        <v>0</v>
-      </c>
-      <c r="B20" s="36">
+      <c r="C19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="29">
         <v>17</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.17188" style="88" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="88" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="88" customWidth="1"/>
-    <col min="4" max="4" width="21.1719" style="88" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="88" customWidth="1"/>
-    <col min="6" max="256" width="8.17188" style="88" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="78" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="78" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="78" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" t="b" s="89">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="10">
+    <row r="3" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A3" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="30">
+      <c r="C4" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="D4" s="26"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" t="s" s="30">
+      <c r="C5" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="D5" s="26"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="30">
+      <c r="C6" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="D6" s="26"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="30">
+      <c r="C7" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="D7" s="26"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="30">
+      <c r="C8" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="b" s="21">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="D8" s="26"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.75" customHeight="1">
+      <c r="A9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="30">
+      <c r="C9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="b" s="71">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="D9" s="26"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="30">
+      <c r="C10" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="D10" s="26"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A11" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" t="s" s="30">
+      <c r="C11" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="D11" s="26"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A12" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" t="s" s="30">
+      <c r="C12" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1">
-      <c r="A13" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="D12" s="26"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A13" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="30">
+      <c r="C13" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="D13" s="26"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A14" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" t="s" s="30">
+      <c r="C14" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="21.75" customHeight="1">
-      <c r="A15" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="D14" s="26"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A15" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="30">
+      <c r="C15" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1">
-      <c r="A16" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="D15" s="26"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A16" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" t="s" s="30">
+      <c r="C16" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="D16" s="26"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A17" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="30">
+      <c r="C17" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="21.75" customHeight="1">
-      <c r="A18" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="D17" s="26"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A18" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" t="s" s="30">
+      <c r="C18" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="D18" s="26"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A19" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" t="s" s="30">
+      <c r="C19" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A20" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="30">
+      <c r="C20" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1">
-      <c r="A21" t="b" s="90">
-        <v>0</v>
-      </c>
-      <c r="B21" s="14">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A21" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11">
         <v>18</v>
       </c>
-      <c r="C21" t="s" s="30">
+      <c r="C21" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Attack" sheetId="1" r:id="rId1"/>
-    <sheet name="Charged Attack" sheetId="2" r:id="rId2"/>
-    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId3"/>
-    <sheet name="Block - Block" sheetId="4" r:id="rId4"/>
-    <sheet name="Active - Active" sheetId="5" r:id="rId5"/>
-    <sheet name="Passive - Passive" sheetId="6" r:id="rId6"/>
-    <sheet name="Character" sheetId="7" r:id="rId7"/>
-    <sheet name="Skill Tree" sheetId="8" r:id="rId8"/>
-    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId9"/>
+    <sheet name="Attack" sheetId="1" r:id="rId4"/>
+    <sheet name="Charged Attack" sheetId="2" r:id="rId5"/>
+    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId6"/>
+    <sheet name="Block - Block" sheetId="4" r:id="rId7"/>
+    <sheet name="Active - Active" sheetId="5" r:id="rId8"/>
+    <sheet name="Passive - Passive" sheetId="6" r:id="rId9"/>
+    <sheet name="Character" sheetId="7" r:id="rId10"/>
+    <sheet name="Skill Tree" sheetId="8" r:id="rId11"/>
+    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -113,6 +106,9 @@
     <t>Seed apply dot</t>
   </si>
   <si>
+    <t>Rotor Charged attack</t>
+  </si>
+  <si>
     <t>Dodge</t>
   </si>
   <si>
@@ -194,7 +190,7 @@
     <t>ICE Cone</t>
   </si>
   <si>
-    <t>Chain of Contamination</t>
+    <t>Overflow</t>
   </si>
   <si>
     <t>AOE Stun</t>
@@ -332,6 +328,9 @@
     <t>TempEnemy</t>
   </si>
   <si>
+    <t>RotorEnemy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill tree </t>
   </si>
   <si>
@@ -489,23 +488,28 @@
   </si>
   <si>
     <t xml:space="preserve">Time Limit Plantform </t>
-  </si>
-  <si>
-    <t>RotorEnemy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotor Charged attack</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
@@ -574,10 +578,6 @@
       <color indexed="20"/>
       <name val="Avenir Next"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Avenir Next"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -593,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -882,6 +882,32 @@
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1037,378 +1063,320 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="91">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF313131"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFDFEFF"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FF929292"/>
-      <rgbColor rgb="FFADADAD"/>
-      <rgbColor rgb="FF932092"/>
-      <rgbColor rgb="FF00F900"/>
-      <rgbColor rgb="FF0432FF"/>
-      <rgbColor rgb="FFFF2600"/>
-      <rgbColor rgb="FF00FCFF"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff313131"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fffdfeff"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="ff929292"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="ff932092"/>
+      <rgbColor rgb="ff00f900"/>
+      <rgbColor rgb="ff0432ff"/>
+      <rgbColor rgb="ffff2600"/>
+      <rgbColor rgb="ff00fcff"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -1534,7 +1502,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1543,7 +1511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1552,7 +1520,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1626,7 +1594,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1634,7 +1602,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1653,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1761,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1787,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1904,15 +1872,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1927,7 +1889,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1935,7 +1897,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1954,7 +1916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1980,7 +1942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2006,7 +1968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2032,7 +1994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2058,7 +2020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2084,7 +2046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2110,7 +2072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2136,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2162,7 +2124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2188,7 +2150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2201,15 +2163,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2223,7 +2179,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2242,7 +2198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2298,7 +2254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2350,7 +2306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2376,7 +2332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,7 +2358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2428,7 +2384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,7 +2410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2480,7 +2436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2493,2515 +2449,2458 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" t="s" s="20">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s" s="20">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23">
         <v>30</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" t="s" s="24">
         <v>13</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="24" customWidth="1"/>
-    <col min="2" max="5" width="16.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="29" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.1640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="29" style="27" customWidth="1"/>
+    <col min="7" max="256" width="8.17188" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>100</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>101</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A5" s="84" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="86">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>102</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" t="s" s="30">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26" t="s">
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="32"/>
+      <c r="F6" t="s" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="26" t="s">
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" t="s" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A8" s="84" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="86">
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>103</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="16"/>
+      <c r="F8" t="s" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="26" t="s">
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="16"/>
+      <c r="F9" t="s" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>104</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A11" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23">
         <v>105</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s" s="20">
         <v>26</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="36">
         <v>106</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
         <v>107</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="36">
         <v>108</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="23">
         <v>109</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="36">
         <v>110</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="23">
         <v>111</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="29">
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="36">
         <v>112</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23">
         <v>113</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36">
         <v>114</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A21" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B21" s="23">
         <v>115</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A22" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="29">
+      <c r="C21" t="s" s="20">
+        <v>28</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1">
+      <c r="A22" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B22" s="36">
         <v>116</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A23" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="20">
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1">
+      <c r="A23" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23">
         <v>117</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A24" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="29">
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1">
+      <c r="A24" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B24" s="36">
         <v>118</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A25" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="20">
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1">
+      <c r="A25" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B25" s="23">
         <v>119</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A26" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="29">
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1">
+      <c r="A26" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B26" s="36">
         <v>120</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A27" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="20">
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1">
+      <c r="A27" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23">
         <v>121</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1">
-      <c r="C28" s="17"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="30" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8516" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="39" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>150</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="C3" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>151</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>152</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>153</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>154</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="C7" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B8" s="23">
         <v>155</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="C8" t="s" s="40">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="18.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="18.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="38" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="38" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="27.6719" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="47" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="48">
         <v>37</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" t="s" s="52">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="52">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" t="s" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="54">
+        <v>0</v>
+      </c>
+      <c r="B3" s="55">
         <v>200</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="48">
+      <c r="C3" t="s" s="56">
+        <v>39</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60">
         <v>201</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="48">
+      <c r="C4" t="s" s="61">
+        <v>40</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B5" s="60">
         <v>202</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="C5" t="s" s="61">
+        <v>41</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B6" s="60">
         <v>203</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="48">
+      <c r="C6" t="s" s="64">
+        <v>42</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B7" s="60">
         <v>204</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="C7" t="s" s="64">
+        <v>43</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B8" s="60">
         <v>205</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="48">
+      <c r="C8" t="s" s="65">
+        <v>44</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B9" s="60">
         <v>206</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C9" t="s" s="65">
+        <v>45</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="59" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="59" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="71" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="71" customWidth="1"/>
+    <col min="3" max="3" width="23.3516" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>250</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="C3" t="s" s="72">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>251</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>252</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>253</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>254</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>255</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>256</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="C9" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>257</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C10" t="s" s="19">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>258</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>259</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="C12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>260</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="C13" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>261</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>262</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>263</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="C16" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>264</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C17" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="62" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="74" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="74" customWidth="1"/>
+    <col min="3" max="3" width="23.3516" style="74" customWidth="1"/>
+    <col min="4" max="4" width="42.8516" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="74" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>500</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63">
+      <c r="C3" t="s" s="72">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75">
         <v>501</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C4" t="s" s="15">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
         <v>502</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="63">
+      <c r="C5" t="s" s="15">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75">
         <v>503</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C6" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
         <v>504</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="63">
+      <c r="C7" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="75">
         <v>505</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="C8" t="s" s="18">
+        <v>70</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
         <v>506</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="63">
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="75">
         <v>507</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="C10" t="s" s="30">
+        <v>71</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
         <v>508</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="63">
+      <c r="C11" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B12" s="75">
         <v>509</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C12" t="s" s="30">
+        <v>73</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
         <v>510</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="63">
+      <c r="C13" t="s" s="30">
+        <v>74</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="36.75" customHeight="1">
+      <c r="A14" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B14" s="75">
         <v>511</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="C14" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
         <v>512</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>513</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="64" t="s">
+      <c r="C16" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="30">
         <v>77</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="C19" t="s" s="76">
         <v>78</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="30">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s" s="76">
         <v>18</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="64" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1">
+      <c r="A21" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="30">
         <v>80</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="C21" t="s" s="76">
         <v>81</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1">
+      <c r="A22" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="30">
         <v>82</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="C22" t="s" s="76">
         <v>83</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1">
+      <c r="A23" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="30">
         <v>84</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="C23" t="s" s="76">
         <v>85</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="30">
         <v>86</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="C24" t="s" s="77">
         <v>87</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="26" t="s">
+      <c r="D24" t="s" s="77">
         <v>88</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1">
+      <c r="A25" s="78"/>
+      <c r="B25" t="s" s="30">
         <v>89</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="C25" t="s" s="79">
         <v>90</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="26" t="s">
+      <c r="D25" t="s" s="80">
         <v>91</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="26" t="s">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1">
+      <c r="A26" s="81"/>
+      <c r="B26" t="s" s="30">
         <v>92</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="26" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1">
+      <c r="A27" s="81"/>
+      <c r="B27" t="s" s="30">
         <v>93</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="26" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1">
+      <c r="A28" s="81"/>
+      <c r="B28" t="s" s="30">
         <v>94</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="26" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1">
+      <c r="A29" s="81"/>
+      <c r="B29" t="s" s="30">
         <v>95</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" t="s" s="30">
+        <v>96</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="71" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="71" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="71" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="83" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="83" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="83" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="83" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="19">
+        <v>101</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="C9" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="C10" s="40"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36">
         <v>8</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" s="84"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23">
         <v>13</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="36">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23">
         <v>16</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36">
         <v>17</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="77" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="77" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="77" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="89" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="89" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="89" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="89" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="89" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="15">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s" s="30">
+        <v>108</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="15">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s" s="30">
+        <v>110</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s" s="30">
+        <v>112</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s" s="30">
+        <v>114</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="19">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s" s="30">
+        <v>116</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="C9" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s" s="30">
+        <v>118</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="C10" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s" s="30">
+        <v>120</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s" s="30">
+        <v>122</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="C12" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s" s="30">
+        <v>124</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s" s="30">
+        <v>126</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s" s="30">
+        <v>128</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="C15" t="s" s="20">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s" s="30">
+        <v>130</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="C16" t="s" s="20">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="36">
         <v>14</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s" s="30">
+        <v>134</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" t="s" s="20">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s" s="30">
+        <v>136</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="78" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="78" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="78" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="78" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="90" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="90" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="90" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="90" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="90" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="30">
+        <v>138</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="30">
+        <v>139</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="30">
+        <v>140</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="30">
+        <v>141</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="30">
+        <v>142</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="C9" t="s" s="30">
+        <v>143</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C10" t="s" s="30">
+        <v>144</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="30">
+        <v>145</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="C12" t="s" s="30">
+        <v>146</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="C13" t="s" s="30">
+        <v>147</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="30">
+        <v>148</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="30">
+        <v>149</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="C16" t="s" s="30">
+        <v>150</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" t="s" s="30">
+        <v>151</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="C18" t="s" s="30">
+        <v>152</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="C19" t="s" s="30">
+        <v>153</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A21" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="C20" t="s" s="30">
+        <v>154</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="C21" t="s" s="30">
+        <v>155</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Attack" sheetId="1" r:id="rId1"/>
-    <sheet name="Charged Attack" sheetId="2" r:id="rId2"/>
-    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId3"/>
-    <sheet name="Block - Block" sheetId="4" r:id="rId4"/>
-    <sheet name="Active - Active" sheetId="5" r:id="rId5"/>
-    <sheet name="Passive - Passive" sheetId="6" r:id="rId6"/>
-    <sheet name="Character" sheetId="7" r:id="rId7"/>
-    <sheet name="Skill Tree" sheetId="8" r:id="rId8"/>
-    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId9"/>
+    <sheet name="Attack" sheetId="1" r:id="rId4"/>
+    <sheet name="Charged Attack" sheetId="2" r:id="rId5"/>
+    <sheet name="Dodge - Dodge" sheetId="3" r:id="rId6"/>
+    <sheet name="Block - Block" sheetId="4" r:id="rId7"/>
+    <sheet name="Active - Active" sheetId="5" r:id="rId8"/>
+    <sheet name="Passive - Passive" sheetId="6" r:id="rId9"/>
+    <sheet name="Character" sheetId="7" r:id="rId10"/>
+    <sheet name="Skill Tree" sheetId="8" r:id="rId11"/>
+    <sheet name="Trap_Obstacle" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -113,6 +106,9 @@
     <t>Seed apply dot</t>
   </si>
   <si>
+    <t>Rotor Charged attack</t>
+  </si>
+  <si>
     <t>Dodge</t>
   </si>
   <si>
@@ -332,6 +328,15 @@
     <t>TempEnemy</t>
   </si>
   <si>
+    <t>RotorEnemy</t>
+  </si>
+  <si>
+    <t>TempBomb</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill tree </t>
   </si>
   <si>
@@ -489,23 +494,28 @@
   </si>
   <si>
     <t xml:space="preserve">Time Limit Plantform </t>
-  </si>
-  <si>
-    <t>RotorEnemy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotor Charged attack</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
@@ -574,10 +584,6 @@
       <color indexed="20"/>
       <name val="Avenir Next"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Avenir Next"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -593,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -882,6 +888,32 @@
       <top style="thin">
         <color indexed="12"/>
       </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -988,427 +1020,310 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color indexed="15"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="15"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="15"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="87">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF313131"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFDFEFF"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FF929292"/>
-      <rgbColor rgb="FFADADAD"/>
-      <rgbColor rgb="FF932092"/>
-      <rgbColor rgb="FF00F900"/>
-      <rgbColor rgb="FF0432FF"/>
-      <rgbColor rgb="FFFF2600"/>
-      <rgbColor rgb="FF00FCFF"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff313131"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="fffdfeff"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="ff929292"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="ff932092"/>
+      <rgbColor rgb="ff00f900"/>
+      <rgbColor rgb="ff0432ff"/>
+      <rgbColor rgb="ffff2600"/>
+      <rgbColor rgb="ff00fcff"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -1534,7 +1449,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1543,7 +1458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1552,7 +1467,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1626,7 +1541,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1634,7 +1549,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1653,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +1598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +1650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1761,7 +1676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1787,7 +1702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +1728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +1754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +1780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +1806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1904,15 +1819,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1927,7 +1836,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1935,7 +1844,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1954,7 +1863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1980,7 +1889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2006,7 +1915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2032,7 +1941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2058,7 +1967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2084,7 +1993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2110,7 +2019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2136,7 +2045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2162,7 +2071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2188,7 +2097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2201,15 +2110,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2223,7 +2126,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2242,7 +2145,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2298,7 +2201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2350,7 +2253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2376,7 +2279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,7 +2305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2428,7 +2331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,7 +2357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2480,7 +2383,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2493,2519 +2396,2469 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" t="s" s="20">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s" s="20">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23">
         <v>30</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" t="s" s="24">
         <v>13</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="24" customWidth="1"/>
-    <col min="2" max="5" width="16.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="29" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.1640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="29" style="27" customWidth="1"/>
+    <col min="7" max="256" width="8.17188" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>100</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>101</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A5" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="87">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>102</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" t="s" s="30">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26" t="s">
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="32"/>
+      <c r="F6" t="s" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="26" t="s">
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" t="s" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A8" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="87">
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>103</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="16"/>
+      <c r="F8" t="s" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="26" t="s">
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="16"/>
+      <c r="F9" t="s" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>104</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A11" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23">
         <v>105</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s" s="20">
         <v>26</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="36">
         <v>106</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
         <v>107</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="36">
         <v>108</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="23">
         <v>109</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="36">
         <v>110</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="23">
         <v>111</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="29">
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="36">
         <v>112</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23">
         <v>113</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36">
         <v>114</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A21" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B21" s="23">
         <v>115</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A22" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="29">
+      <c r="C21" t="s" s="20">
+        <v>28</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1">
+      <c r="A22" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B22" s="36">
         <v>116</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A23" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="20">
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1">
+      <c r="A23" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23">
         <v>117</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A24" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="29">
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1">
+      <c r="A24" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B24" s="36">
         <v>118</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A25" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="20">
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1">
+      <c r="A25" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B25" s="23">
         <v>119</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A26" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="29">
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1">
+      <c r="A26" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B26" s="36">
         <v>120</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A27" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="20">
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1">
+      <c r="A27" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23">
         <v>121</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1">
-      <c r="C28" s="17"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="30" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8516" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="39" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>150</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="C3" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>151</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>152</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>153</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>154</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="C7" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B8" s="23">
         <v>155</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="C8" t="s" s="40">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="18.25" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="18.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="38" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="38" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="27.6719" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="47" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="48">
         <v>37</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" t="s" s="52">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="52">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" t="s" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="43">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="54">
+        <v>0</v>
+      </c>
+      <c r="B3" s="55">
         <v>200</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="48">
+      <c r="C3" t="s" s="56">
+        <v>39</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60">
         <v>201</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="48">
+      <c r="C4" t="s" s="61">
+        <v>40</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B5" s="60">
         <v>202</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="C5" t="s" s="61">
+        <v>41</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B6" s="60">
         <v>203</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="48">
+      <c r="C6" t="s" s="64">
+        <v>42</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B7" s="60">
         <v>204</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="C7" t="s" s="64">
+        <v>43</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B8" s="60">
         <v>205</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="48">
+      <c r="C8" t="s" s="65">
+        <v>44</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" t="b" s="59">
+        <v>0</v>
+      </c>
+      <c r="B9" s="60">
         <v>206</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C9" t="s" s="65">
+        <v>45</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="59" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="59" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="71" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="71" customWidth="1"/>
+    <col min="3" max="3" width="23.3516" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>250</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="C3" t="s" s="72">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>251</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>252</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>253</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>254</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>255</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>256</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="C9" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>257</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C10" t="s" s="19">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>258</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>259</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="C12" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>260</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="C13" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1">
+      <c r="A14" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>261</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>262</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>263</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="C16" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>264</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C17" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="62" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="74" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="74" customWidth="1"/>
+    <col min="3" max="3" width="23.3516" style="74" customWidth="1"/>
+    <col min="4" max="4" width="42.8516" style="74" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="74" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>500</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63">
+      <c r="C3" t="s" s="72">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75">
         <v>501</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C4" t="s" s="15">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
         <v>502</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="63">
+      <c r="C5" t="s" s="15">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75">
         <v>503</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C6" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
         <v>504</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="63">
+      <c r="C7" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="75">
         <v>505</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="C8" t="s" s="18">
+        <v>70</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
         <v>506</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="63">
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1">
+      <c r="A10" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="75">
         <v>507</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="C10" t="s" s="30">
+        <v>71</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1">
+      <c r="A11" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
         <v>508</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="63">
+      <c r="C11" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1">
+      <c r="A12" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B12" s="75">
         <v>509</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C12" t="s" s="30">
+        <v>73</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
         <v>510</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="63">
+      <c r="C13" t="s" s="30">
+        <v>74</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="36.75" customHeight="1">
+      <c r="A14" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B14" s="75">
         <v>511</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="C14" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1">
+      <c r="A15" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
         <v>512</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1">
+      <c r="A16" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>513</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="64" t="s">
+      <c r="C16" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1">
+      <c r="A19" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="30">
         <v>77</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="C19" t="s" s="76">
         <v>78</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="30">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s" s="76">
         <v>18</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="64" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1">
+      <c r="A21" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="30">
         <v>80</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="C21" t="s" s="76">
         <v>81</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1">
+      <c r="A22" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="30">
         <v>82</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="C22" t="s" s="76">
         <v>83</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1">
+      <c r="A23" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="30">
         <v>84</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="C23" t="s" s="76">
         <v>85</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="30">
         <v>86</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="C24" t="s" s="77">
         <v>87</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="26" t="s">
+      <c r="D24" t="s" s="77">
         <v>88</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1">
+      <c r="A25" s="78"/>
+      <c r="B25" t="s" s="30">
         <v>89</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="C25" t="s" s="79">
         <v>90</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="26" t="s">
+      <c r="D25" t="s" s="80">
         <v>91</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="26" t="s">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1">
+      <c r="A26" s="81"/>
+      <c r="B26" t="s" s="30">
         <v>92</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="26" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1">
+      <c r="A27" s="81"/>
+      <c r="B27" t="s" s="30">
         <v>93</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="26" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1">
+      <c r="A28" s="81"/>
+      <c r="B28" t="s" s="30">
         <v>94</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="26" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1">
+      <c r="A29" s="81"/>
+      <c r="B29" t="s" s="30">
         <v>95</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" t="s" s="30">
+        <v>96</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="71" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="71" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="71" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="83" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="83" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="83" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="83" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="30">
+        <v>101</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="C9" t="s" s="30">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="C10" t="s" s="30">
+        <v>103</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>8</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="30">
+        <v>104</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>11</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="77" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="77" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="77" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="85" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="85" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="85" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="85" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="85" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="15">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s" s="30">
+        <v>110</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s" s="30">
+        <v>112</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s" s="30">
+        <v>114</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s" s="30">
+        <v>116</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="19">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s" s="30">
+        <v>118</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="C9" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s" s="30">
+        <v>120</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="C10" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s" s="30">
+        <v>122</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s" s="30">
+        <v>124</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="C12" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s" s="30">
+        <v>126</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s" s="30">
+        <v>128</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="20">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s" s="30">
+        <v>130</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="C15" t="s" s="20">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="C16" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s" s="30">
+        <v>134</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="36">
         <v>14</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" t="s" s="20">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s" s="30">
+        <v>136</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="C18" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s" s="30">
+        <v>138</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="36">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.16667" defaultRowHeight="21.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="78" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="78" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="78" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="78" customWidth="1"/>
+    <col min="1" max="1" width="8.17188" style="86" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="86" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="86" customWidth="1"/>
+    <col min="4" max="4" width="21.1719" style="86" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="86" customWidth="1"/>
+    <col min="6" max="256" width="8.17188" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="79" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="A3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="22.75" customHeight="1">
+      <c r="A4" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C4" t="s" s="30">
+        <v>140</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="22.75" customHeight="1">
+      <c r="A5" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C5" t="s" s="30">
+        <v>141</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="22.75" customHeight="1">
+      <c r="A6" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="C6" t="s" s="30">
+        <v>142</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="22.75" customHeight="1">
+      <c r="A7" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C7" t="s" s="30">
+        <v>143</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="22.75" customHeight="1">
+      <c r="A8" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="C8" t="s" s="30">
+        <v>144</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1">
+      <c r="A9" t="b" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="C9" t="s" s="30">
+        <v>145</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" t="b" s="22">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C10" t="s" s="30">
+        <v>146</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1">
+      <c r="A11" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="C11" t="s" s="30">
+        <v>147</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1">
+      <c r="A12" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>9</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="C12" t="s" s="30">
+        <v>148</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1">
+      <c r="A13" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="C13" t="s" s="30">
+        <v>149</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1">
+      <c r="A14" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="C14" t="s" s="30">
+        <v>150</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1">
+      <c r="A15" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="C15" t="s" s="30">
+        <v>151</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
+      <c r="A16" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>13</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="C16" t="s" s="30">
+        <v>152</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1">
+      <c r="A17" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>14</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C17" t="s" s="30">
+        <v>153</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1">
+      <c r="A18" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="C18" t="s" s="30">
+        <v>154</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1">
+      <c r="A19" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="C19" t="s" s="30">
+        <v>155</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1">
+      <c r="A20" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
         <v>17</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A21" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="C20" t="s" s="30">
+        <v>156</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1">
+      <c r="A21" t="b" s="35">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="C21" t="s" s="30">
+        <v>157</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attack" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -496,6 +496,10 @@
   </si>
   <si>
     <t>Rotor Charged attack</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombEnemy</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3277,7 +3281,7 @@
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4120,8 +4124,8 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4247,7 +4251,9 @@
       <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
     </row>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="158">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>BombEnemy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileEnemy</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1262,9 +1266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1333,6 +1334,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,13 +2539,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2748,13 +2752,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
@@ -2804,13 +2808,13 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A5" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="87">
+      <c r="A5" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="86">
         <v>102</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="13"/>
@@ -2820,9 +2824,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="13"/>
       <c r="E6" s="27"/>
       <c r="F6" s="26" t="s">
@@ -2830,9 +2834,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="26" t="s">
@@ -2840,26 +2844,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A8" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="87">
+      <c r="A8" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="86">
         <v>103</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="13"/>
       <c r="F8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="13"/>
       <c r="F9" s="26" t="s">
         <v>24</v>
@@ -3141,13 +3145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -3295,13 +3299,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="39"/>
@@ -3453,13 +3457,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -3744,13 +3748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4125,7 +4129,7 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4138,13 +4142,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4264,7 +4268,9 @@
       <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="95" t="s">
+        <v>157</v>
+      </c>
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
     </row>
@@ -4275,9 +4281,9 @@
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1">
       <c r="A13" s="28" t="b">
@@ -4286,9 +4292,9 @@
       <c r="B13" s="20">
         <v>10</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1">
       <c r="A14" s="28" t="b">
@@ -4297,9 +4303,9 @@
       <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1">
       <c r="A15" s="28" t="b">
@@ -4308,9 +4314,9 @@
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1">
       <c r="A16" s="28" t="b">
@@ -4319,9 +4325,9 @@
       <c r="B16" s="20">
         <v>13</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1">
       <c r="A17" s="28" t="b">
@@ -4330,9 +4336,9 @@
       <c r="B17" s="29">
         <v>14</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1">
       <c r="A18" s="28" t="b">
@@ -4341,9 +4347,9 @@
       <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1">
       <c r="A19" s="28" t="b">
@@ -4352,9 +4358,9 @@
       <c r="B19" s="20">
         <v>16</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1">
       <c r="A20" s="28" t="b">
@@ -4363,7 +4369,7 @@
       <c r="B20" s="29">
         <v>17</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
     </row>
@@ -4396,22 +4402,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="77" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="77" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="77" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="77" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="76" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="76" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="76" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4719,22 +4725,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="78" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="78" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="78" customWidth="1"/>
-    <col min="6" max="256" width="8.1640625" style="78" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="77" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="77" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="77" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="77" customWidth="1"/>
+    <col min="6" max="256" width="8.1640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4752,7 +4758,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.75" customHeight="1">
-      <c r="A3" s="79" t="b">
+      <c r="A3" s="78" t="b">
         <v>0</v>
       </c>
       <c r="B3" s="6">
@@ -4856,7 +4862,7 @@
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A11" s="80" t="b">
+      <c r="A11" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="11">
@@ -4869,7 +4875,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A12" s="80" t="b">
+      <c r="A12" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="11">
@@ -4882,7 +4888,7 @@
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A13" s="80" t="b">
+      <c r="A13" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B13" s="11">
@@ -4895,7 +4901,7 @@
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A14" s="80" t="b">
+      <c r="A14" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="11">
@@ -4908,7 +4914,7 @@
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A15" s="80" t="b">
+      <c r="A15" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="11">
@@ -4921,7 +4927,7 @@
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A16" s="80" t="b">
+      <c r="A16" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="11">
@@ -4934,7 +4940,7 @@
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A17" s="80" t="b">
+      <c r="A17" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B17" s="11">
@@ -4947,7 +4953,7 @@
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A18" s="80" t="b">
+      <c r="A18" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B18" s="11">
@@ -4960,7 +4966,7 @@
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A19" s="80" t="b">
+      <c r="A19" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B19" s="11">
@@ -4973,7 +4979,7 @@
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A20" s="80" t="b">
+      <c r="A20" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B20" s="11">
@@ -4986,7 +4992,7 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A21" s="80" t="b">
+      <c r="A21" s="79" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="11">

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Attack" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>MissileEnemy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1CannonBullet</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1290,6 +1294,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1334,9 +1341,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2523,10 +2527,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2539,13 +2543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2713,6 +2717,17 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2752,13 +2767,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
@@ -2808,13 +2823,13 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A5" s="84" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="86">
+      <c r="A5" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="87">
         <v>102</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="91" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="13"/>
@@ -2824,9 +2839,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="13"/>
       <c r="E6" s="27"/>
       <c r="F6" s="26" t="s">
@@ -2834,9 +2849,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="26" t="s">
@@ -2844,26 +2859,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A8" s="84" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="86">
+      <c r="A8" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="87">
         <v>103</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="13"/>
       <c r="F8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.75" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="89"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="13"/>
       <c r="F9" s="26" t="s">
         <v>24</v>
@@ -3145,13 +3160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -3299,13 +3314,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="39"/>
@@ -3457,13 +3472,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -3748,13 +3763,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4128,7 +4143,7 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4142,13 +4157,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4268,7 +4283,7 @@
       <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="80" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="33"/>
@@ -4411,13 +4426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -4734,13 +4749,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>

--- a/Skill List.xlsx
+++ b/Skill List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="47620" yWindow="-460" windowWidth="25600" windowHeight="16060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Attack" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Skill Tree" sheetId="8" r:id="rId8"/>
     <sheet name="Trap_Obstacle" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t xml:space="preserve">Attack </t>
   </si>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>Boss1CannonBullet</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1UltBullet</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -588,6 +592,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Avenir Next"/>
     </font>
   </fonts>
@@ -1048,8 +1064,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1343,8 +1377,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2527,10 +2567,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV17"/>
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2727,6 +2767,11 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21.75" customHeight="1">
+      <c r="B18" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2754,8 +2799,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3043,7 +3088,6 @@
       <c r="B22" s="29">
         <v>116</v>
       </c>
-      <c r="C22" s="17"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
@@ -3055,7 +3099,9 @@
       <c r="B23" s="20">
         <v>117</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
@@ -3147,7 +3193,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3460,7 +3506,9 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3750,7 +3798,9 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
